--- a/OnBoard/output/trust/bio/Bio_Trust_37.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_37.xlsx
@@ -14286,6 +14286,9 @@
       <c r="G282">
         <v>1</v>
       </c>
+      <c r="H282">
+        <v>223</v>
+      </c>
       <c r="I282">
         <v>-1</v>
       </c>
@@ -14296,6 +14299,11 @@
       </c>
       <c r="L282">
         <v>0</v>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>nolw l inferred</t>
+        </is>
       </c>
     </row>
     <row r="283">
